--- a/produits.xlsx
+++ b/produits.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Nom</t>
   </si>
@@ -41,121 +41,118 @@
     <t>image</t>
   </si>
   <si>
-    <t>prodd</t>
-  </si>
-  <si>
-    <t>RF-123</t>
-  </si>
-  <si>
-    <t>prod1prod1prod1prod1prod1prod1prod1prod1prod1prod1prod1prod1prod1</t>
-  </si>
-  <si>
-    <t>456.0</t>
+    <t>produit</t>
+  </si>
+  <si>
+    <t>RF-456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ttvdch bk lwdfblhkwfd hht tvdchbklwdf blhkwfdhhttv dchbklwdfblhkw fdhhttvdchbkl wdfblhkwfdhh ttvdchbkl wdfblhkwf dhhttvdc hbklwdfb lhkwfdhh  </t>
+  </si>
+  <si>
+    <t>523.0</t>
+  </si>
+  <si>
+    <t>basketball</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>adidas</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/salma/Downloads/png-clipart-sportswear-clothing-t-shirt-sports-wear-tshirt-sport-removebg-preview.png</t>
+  </si>
+  <si>
+    <t>salmahhhh</t>
+  </si>
+  <si>
+    <t>RF-77777</t>
+  </si>
+  <si>
+    <t>zsedfvg bhcvghvy</t>
+  </si>
+  <si>
+    <t>878484.0</t>
   </si>
   <si>
     <t>football</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>adidas</t>
-  </si>
-  <si>
-    <t>1455</t>
-  </si>
-  <si>
-    <t>file:/C:/Users/salma/Downloads/pull%20(1).png</t>
-  </si>
-  <si>
-    <t>salma</t>
-  </si>
-  <si>
-    <t>RF-456</t>
-  </si>
-  <si>
-    <t>hbvjswdjrbsdjkvvdbdw</t>
-  </si>
-  <si>
-    <t>145.99</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>45</t>
+    <t>77</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>utkf</t>
+  </si>
+  <si>
+    <t>RF-78</t>
+  </si>
+  <si>
+    <t>;ilyyby bbhjyhj hnui</t>
+  </si>
+  <si>
+    <t>520.0</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>puma</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/salma/Downloads/Chaussure_LWST_Beige_IF8798_db01_standard.png</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>RF-785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i,unyh tbgv sfi,unyh tbgvsfi,u nyhtbg vsf i,unyhtbgvs fi,unyhtbg vsfi,unyht bgvsfi,unyh tbgvsfi,u nyhtbgvsf  </t>
+  </si>
+  <si>
+    <t>320.0</t>
+  </si>
+  <si>
+    <t>volleyball</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>4444</t>
   </si>
   <si>
     <t>file:/C:/Users/salma/Downloads/Chaussure_Rivalry_86_Low_Blanc_ID8406_db01_standard.png</t>
   </si>
   <si>
-    <t>produit</t>
-  </si>
-  <si>
-    <t>RF-54</t>
-  </si>
-  <si>
-    <t>salmasalmasalmasalmasalmasalma</t>
-  </si>
-  <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>nike</t>
-  </si>
-  <si>
-    <t>1452</t>
-  </si>
-  <si>
-    <t>file:/C:/Users/salma/Downloads/Chaussure_LWST_Beige_IF8798_db01_standard.png</t>
-  </si>
-  <si>
-    <t>utkf</t>
-  </si>
-  <si>
-    <t>RF-78</t>
-  </si>
-  <si>
-    <t>;ilyybybbhjyhjhnui</t>
-  </si>
-  <si>
-    <t>520.0</t>
-  </si>
-  <si>
-    <t>basketball</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>puma</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>RF-785</t>
-  </si>
-  <si>
-    <t>i,unyhtbgvsf</t>
-  </si>
-  <si>
-    <t>320.0</t>
-  </si>
-  <si>
-    <t>volleyball</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>4444</t>
+    <t>labidi</t>
+  </si>
+  <si>
+    <t>RF-789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jn,gfjnbjnnj jn,gfjnb  jnnjjn,gfjnb jnnjjn,g fjn bjn njjn,gf jnbjnnjjn,g fjnbjnnjj n,gfjnbjn njjn,gfjn bjn nj </t>
+  </si>
+  <si>
+    <t>789.0</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/salma/Downloads/nike-air-zoom-sructure-22.png</t>
   </si>
 </sst>
 </file>
@@ -163,7 +160,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -171,16 +168,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,12 +200,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thick"/>
+    </border>
+    <border>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thick"/>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFill="true" applyAlignment="true" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -206,43 +283,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.08984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="58.8671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.97265625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.5" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.53125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.68359375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="7.1953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="72.546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.0" customWidth="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="40.0" customWidth="true"/>
+    <col min="4" max="4" width="20.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="20.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+    <col min="8" max="8" width="20.0" customWidth="true"/>
+    <col min="9" max="9" width="40.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s" s="1">
         <v>8</v>
       </c>
     </row>
@@ -289,19 +366,19 @@
         <v>21</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>15</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -327,68 +404,68 @@
         <v>30</v>
       </c>
       <c r="H4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="E5" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="F5" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="G5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="I5" t="s" s="0">
         <v>39</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="D6" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="E6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>46</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>15</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/produits.xlsx
+++ b/produits.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Nom</t>
   </si>
@@ -41,118 +41,100 @@
     <t>image</t>
   </si>
   <si>
-    <t>produit</t>
-  </si>
-  <si>
-    <t>RF-456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ttvdch bk lwdfblhkwfd hht tvdchbklwdf blhkwfdhhttv dchbklwdfblhkw fdhhttvdchbkl wdfblhkwfdhh ttvdchbkl wdfblhkwf dhhttvdc hbklwdfb lhkwfdhh  </t>
-  </si>
-  <si>
-    <t>523.0</t>
+    <t>produittt</t>
+  </si>
+  <si>
+    <t>RF-111</t>
+  </si>
+  <si>
+    <t>jfghuhg jfhgufhg jrrghthgh</t>
+  </si>
+  <si>
+    <t>550.0</t>
+  </si>
+  <si>
+    <t>tennis</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>puma</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/PC/Downloads/431230340_1123836995618065_7343501558196158001_n.png</t>
+  </si>
+  <si>
+    <t>proddd</t>
+  </si>
+  <si>
+    <t>RF-213</t>
+  </si>
+  <si>
+    <t>kndnkgkjg kgjkhg fkgfhggh</t>
+  </si>
+  <si>
+    <t>250.0</t>
   </si>
   <si>
     <t>basketball</t>
   </si>
   <si>
-    <t>34</t>
+    <t>38</t>
   </si>
   <si>
     <t>adidas</t>
   </si>
   <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>file:/C:/Users/salma/Downloads/png-clipart-sportswear-clothing-t-shirt-sports-wear-tshirt-sport-removebg-preview.png</t>
-  </si>
-  <si>
-    <t>salmahhhh</t>
-  </si>
-  <si>
-    <t>RF-77777</t>
-  </si>
-  <si>
-    <t>zsedfvg bhcvghvy</t>
-  </si>
-  <si>
-    <t>878484.0</t>
-  </si>
-  <si>
-    <t>football</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>utkf</t>
-  </si>
-  <si>
-    <t>RF-78</t>
-  </si>
-  <si>
-    <t>;ilyyby bbhjyhj hnui</t>
-  </si>
-  <si>
-    <t>520.0</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>puma</t>
-  </si>
-  <si>
-    <t>file:/C:/Users/salma/Downloads/Chaussure_LWST_Beige_IF8798_db01_standard.png</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>RF-785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i,unyh tbgv sfi,unyh tbgvsfi,u nyhtbg vsf i,unyhtbgvs fi,unyhtbg vsfi,unyht bgvsfi,unyh tbgvsfi,u nyhtbgvsf  </t>
-  </si>
-  <si>
-    <t>320.0</t>
-  </si>
-  <si>
-    <t>volleyball</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>4444</t>
-  </si>
-  <si>
-    <t>file:/C:/Users/salma/Downloads/Chaussure_Rivalry_86_Low_Blanc_ID8406_db01_standard.png</t>
-  </si>
-  <si>
-    <t>labidi</t>
-  </si>
-  <si>
-    <t>RF-789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jn,gfjnbjnnj jn,gfjnb  jnnjjn,gfjnb jnnjjn,g fjn bjn njjn,gf jnbjnnjjn,g fjnbjnnjj n,gfjnbjn njjn,gfjn bjn nj </t>
-  </si>
-  <si>
-    <t>789.0</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>file:/C:/Users/salma/Downloads/nike-air-zoom-sructure-22.png</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/PC/Downloads/429981742_923651016128842_2172455321910621938_n.png</t>
+  </si>
+  <si>
+    <t>mmmm</t>
+  </si>
+  <si>
+    <t>RF-222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azet bgdhygdf hjggg dgfggf </t>
+  </si>
+  <si>
+    <t>550.99</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/PC/Downloads/429775719_782004606624835_8864842070008243756_n.png</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>RF-986</t>
+  </si>
+  <si>
+    <t>nbf kghudhb ekhgrshg ihfshegu</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>underArmour</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/PC/Downloads/430017457_739371701641508_5684873896156979200_n.png</t>
   </si>
 </sst>
 </file>
@@ -277,7 +259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -324,148 +306,119 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s" s="0">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s" s="0">
-        <v>17</v>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s" s="0">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s" s="0">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="I5" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/produits.xlsx
+++ b/produits.xlsx
@@ -41,100 +41,100 @@
     <t>image</t>
   </si>
   <si>
-    <t>produittt</t>
-  </si>
-  <si>
-    <t>RF-111</t>
-  </si>
-  <si>
-    <t>jfghuhg jfhgufhg jrrghthgh</t>
-  </si>
-  <si>
-    <t>550.0</t>
-  </si>
-  <si>
-    <t>tennis</t>
-  </si>
-  <si>
-    <t>51</t>
+    <t>produit</t>
+  </si>
+  <si>
+    <t>RF-456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ttvdch bk lwdfblhkwfd hht tvdchbklwdf blhkwfdhhttv dchbklwdfblhkw fdhhttvdchbkl wdfblhkwfdhh ttvdchbkl wdfblhkwf dhhttvdc hbklwdfb lhkwfdhh  </t>
+  </si>
+  <si>
+    <t>523.0</t>
+  </si>
+  <si>
+    <t>basketball</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>adidas</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/PC/OneDrive/Bureau/STUDY/SEMESTRE%202/PI/XtraTime/src/main/resources/Design/client_5674903.png</t>
+  </si>
+  <si>
+    <t>ssss</t>
+  </si>
+  <si>
+    <t>RF-7635</t>
+  </si>
+  <si>
+    <t>jdhfg hhgfg nfhh</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>volleyball</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
   <si>
     <t>puma</t>
   </si>
   <si>
-    <t>1235</t>
-  </si>
-  <si>
-    <t>file:/C:/Users/PC/Downloads/431230340_1123836995618065_7343501558196158001_n.png</t>
-  </si>
-  <si>
-    <t>proddd</t>
-  </si>
-  <si>
-    <t>RF-213</t>
-  </si>
-  <si>
-    <t>kndnkgkjg kgjkhg fkgfhggh</t>
-  </si>
-  <si>
-    <t>250.0</t>
-  </si>
-  <si>
-    <t>basketball</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>adidas</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>file:/C:/Users/PC/Downloads/429981742_923651016128842_2172455321910621938_n.png</t>
-  </si>
-  <si>
-    <t>mmmm</t>
-  </si>
-  <si>
-    <t>RF-222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">azet bgdhygdf hjggg dgfggf </t>
-  </si>
-  <si>
-    <t>550.99</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>file:/C:/Users/PC/Downloads/429775719_782004606624835_8864842070008243756_n.png</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>RF-986</t>
-  </si>
-  <si>
-    <t>nbf kghudhb ekhgrshg ihfshegu</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>underArmour</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>file:/C:/Users/PC/Downloads/430017457_739371701641508_5684873896156979200_n.png</t>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/PC/OneDrive/Bureau/STUDY/SEMESTRE%202/PI/XtraTime/src/main/resources/Design/locateur.png</t>
+  </si>
+  <si>
+    <t>utksfd</t>
+  </si>
+  <si>
+    <t>RF-78</t>
+  </si>
+  <si>
+    <t>;ilyyby bbhjyhj hnui</t>
+  </si>
+  <si>
+    <t>520.0</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/PC/OneDrive/Images/scene00051.png</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>RF-785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i,unyh tbgv sfi,unyh tbgvsfi,u nyhtbg vsf i,unyhtbgvs fi,unyhtbg vsfi,unyht bgvsfi,unyh tbgvsfi,u nyhtbgvsf  </t>
+  </si>
+  <si>
+    <t>320.0</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>4444</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/PC/OneDrive/Images/scene00201.png</t>
   </si>
 </sst>
 </file>
@@ -377,13 +377,13 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -403,16 +403,16 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>

--- a/produits.xlsx
+++ b/produits.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Nom</t>
   </si>
@@ -41,22 +41,121 @@
     <t>image</t>
   </si>
   <si>
-    <t>produit</t>
-  </si>
-  <si>
-    <t>RF-456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ttvdch bk lwdfblhkwfd hht tvdchbklwdf blhkwfdhhttv dchbklwdfblhkw fdhhttvdchbkl wdfblhkwfdhh ttvdchbkl wdfblhkwf dhhttvdc hbklwdfb lhkwfdhh  </t>
-  </si>
-  <si>
-    <t>523.0</t>
+    <t>casquette</t>
+  </si>
+  <si>
+    <t>RF-1376</t>
+  </si>
+  <si>
+    <t>Casquette Men s blitzing</t>
+  </si>
+  <si>
+    <t>79.9</t>
+  </si>
+  <si>
+    <t>tennis</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>underArmour</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/PC/Downloads/431075089_424915046560739_5984573132260576247_n.png</t>
+  </si>
+  <si>
+    <t>PumaR</t>
+  </si>
+  <si>
+    <t>RF-165</t>
+  </si>
+  <si>
+    <t>chaussures puma style lifestyle de bonne qaulite</t>
+  </si>
+  <si>
+    <t>299.9</t>
+  </si>
+  <si>
+    <t>handball</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>puma</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/PC/Downloads/431064621_933905588108092_2890516585664806663_n.png</t>
+  </si>
+  <si>
+    <t>chaussures</t>
+  </si>
+  <si>
+    <t>RF-2314</t>
+  </si>
+  <si>
+    <t>under armour chaussures charger engage 2</t>
+  </si>
+  <si>
+    <t>195.3</t>
   </si>
   <si>
     <t>basketball</t>
   </si>
   <si>
-    <t>34</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/PC/Downloads/429952479_870855094818589_5702838519239634077_n.png</t>
+  </si>
+  <si>
+    <t>sweat</t>
+  </si>
+  <si>
+    <t>RF-332</t>
+  </si>
+  <si>
+    <t>un sweat Nike parfait pour les entrainements et les matchs de tennis</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>nike</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/PC/Downloads/429879991_783714056990865_1450909323849830478_n.png</t>
+  </si>
+  <si>
+    <t>tshirt</t>
+  </si>
+  <si>
+    <t>RF-7635</t>
+  </si>
+  <si>
+    <t>T-shirt adidas style tennis de bonne qualité .</t>
+  </si>
+  <si>
+    <t>103.2</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
   <si>
     <t>adidas</t>
@@ -65,76 +164,52 @@
     <t>145</t>
   </si>
   <si>
-    <t>file:/C:/Users/PC/OneDrive/Bureau/STUDY/SEMESTRE%202/PI/XtraTime/src/main/resources/Design/client_5674903.png</t>
-  </si>
-  <si>
-    <t>ssss</t>
-  </si>
-  <si>
-    <t>RF-7635</t>
-  </si>
-  <si>
-    <t>jdhfg hhgfg nfhh</t>
-  </si>
-  <si>
-    <t>60.0</t>
+    <t>file:/C:/Users/PC/Downloads/429894259_758343949589882_6206105169645578487_n.png</t>
+  </si>
+  <si>
+    <t>shortSeamless</t>
+  </si>
+  <si>
+    <t>RF-78</t>
+  </si>
+  <si>
+    <t>short seamless knit body costruction</t>
+  </si>
+  <si>
+    <t>520.0</t>
   </si>
   <si>
     <t>volleyball</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>puma</t>
-  </si>
-  <si>
-    <t>1452</t>
-  </si>
-  <si>
-    <t>file:/C:/Users/PC/OneDrive/Bureau/STUDY/SEMESTRE%202/PI/XtraTime/src/main/resources/Design/locateur.png</t>
-  </si>
-  <si>
-    <t>utksfd</t>
-  </si>
-  <si>
-    <t>RF-78</t>
-  </si>
-  <si>
-    <t>;ilyyby bbhjyhj hnui</t>
-  </si>
-  <si>
-    <t>520.0</t>
-  </si>
-  <si>
     <t>47</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>file:/C:/Users/PC/OneDrive/Images/scene00051.png</t>
-  </si>
-  <si>
-    <t>aaaa</t>
+    <t>file:/C:/Users/PC/Downloads/431256621_1198353608008614_3651413061939165708_n.png</t>
+  </si>
+  <si>
+    <t>sweatZip</t>
   </si>
   <si>
     <t>RF-785</t>
   </si>
   <si>
-    <t xml:space="preserve">i,unyh tbgv sfi,unyh tbgvsfi,u nyhtbg vsf i,unyhtbgvs fi,unyhtbg vsfi,unyht bgvsfi,unyh tbgvsfi,u nyhtbgvsf  </t>
+    <t>Nike Dri fit academy pro .</t>
   </si>
   <si>
     <t>320.0</t>
   </si>
   <si>
-    <t>41</t>
+    <t>football</t>
   </si>
   <si>
     <t>4444</t>
   </si>
   <si>
-    <t>file:/C:/Users/PC/OneDrive/Images/scene00201.png</t>
+    <t>file:/C:/Users/PC/Downloads/429857836_935375338253015_6394151997488776505_n.png</t>
   </si>
 </sst>
 </file>
@@ -259,7 +334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -377,48 +452,135 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
         <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
